--- a/biology/Zoologie/Echis_pyramidum/Echis_pyramidum.xlsx
+++ b/biology/Zoologie/Echis_pyramidum/Echis_pyramidum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Échide des pyramides
-Echis pyramidum, l'Échide des pyramides, est une espèce de serpents de la famille des Viperidae[1]. 
+Echis pyramidum, l'Échide des pyramides, est une espèce de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Kenya, en Somalie, en Éthiopie, en Tunisie, en Libye, en Égypte, à Djibouti, en Érythrée, en Ouganda, au Soudan, en République centrafricaine, en Arabie saoudite, à Oman et au Yémen[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Kenya, en Somalie, en Éthiopie, en Tunisie, en Libye, en Égypte, à Djibouti, en Érythrée, en Ouganda, au Soudan, en République centrafricaine, en Arabie saoudite, à Oman et au Yémen.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un serpent venimeux qui atteint en moyenne 30 à 60 cm mais de plus grands spécimens existent (85 cm).
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (10 juin 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (10 juin 2013) :
 Echis pyramidum pyramidum (Geoffroy Saint-Hilaire, 1827)
 Echis pyramidum leakeyi Stemmler &amp; Sochurek, 1969
 Echis pyramidum lucidus Cherlin, 1990</t>
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cherlin, 1990 : Taxonomic revision of the snake genus Echis (Viperidae). II. An analysis of taxonomy and description of new forms [in Russian]. Proceedings of the Zoological Institute of Leningrad, vol. 207, p. 193-223.
 Geoffroy Saint-Hilaire, 1827 : Reptiles in Savigny, 1827 : Description d’Égypte. Histoire Naturelle. Paris, vol. 1, p. 121-160 (texte intégral).
